--- a/21_오늘의_증권시황/Data/Output/Today_Stock_Information_2024-12-20.xlsx
+++ b/21_오늘의_증권시황/Data/Output/Today_Stock_Information_2024-12-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C366D35-04A8-412A-B7A4-82D63C7B3F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22151EA6-D647-4DB6-8E1E-1948CBDD2274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17010" yWindow="-13740" windowWidth="13500" windowHeight="12030" firstSheet="5" activeTab="8" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
+    <workbookView xWindow="17010" yWindow="-13740" windowWidth="13500" windowHeight="12030" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2727,12 +2727,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2744,13 +2750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4864,7 +4864,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -4926,13 +4926,13 @@
       <c r="X3" s="62"/>
       <c r="Y3" s="62"/>
       <c r="Z3" s="62"/>
-      <c r="AB3" s="66" t="s">
+      <c r="AB3" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
     </row>
     <row r="4" spans="2:32" ht="18" customHeight="1" thickBot="1">
       <c r="D4" s="11"/>
@@ -4987,18 +4987,18 @@
       <c r="AB4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="68" t="s">
+      <c r="AC4" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
     </row>
     <row r="5" spans="2:32">
       <c r="K5" s="23">
         <v>1</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="66" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="23">
@@ -5071,7 +5071,7 @@
       <c r="K6" s="12">
         <v>2</v>
       </c>
-      <c r="L6" s="64"/>
+      <c r="L6" s="66"/>
       <c r="M6" s="12">
         <v>2</v>
       </c>
@@ -5142,7 +5142,7 @@
       <c r="K7" s="12">
         <v>3</v>
       </c>
-      <c r="L7" s="64"/>
+      <c r="L7" s="66"/>
       <c r="M7" s="12">
         <v>3</v>
       </c>
@@ -5213,7 +5213,7 @@
       <c r="K8" s="12">
         <v>4</v>
       </c>
-      <c r="L8" s="64"/>
+      <c r="L8" s="66"/>
       <c r="M8" s="12">
         <v>4</v>
       </c>
@@ -5296,7 +5296,7 @@
       <c r="K9" s="12">
         <v>5</v>
       </c>
-      <c r="L9" s="64"/>
+      <c r="L9" s="66"/>
       <c r="M9" s="12">
         <v>5</v>
       </c>
@@ -5370,7 +5370,7 @@
       <c r="K10" s="12">
         <v>6</v>
       </c>
-      <c r="L10" s="64"/>
+      <c r="L10" s="66"/>
       <c r="M10" s="12">
         <v>6</v>
       </c>
@@ -5440,7 +5440,7 @@
       <c r="K11" s="12">
         <v>7</v>
       </c>
-      <c r="L11" s="64"/>
+      <c r="L11" s="66"/>
       <c r="M11" s="12">
         <v>7</v>
       </c>
@@ -5510,7 +5510,7 @@
       <c r="K12" s="12">
         <v>8</v>
       </c>
-      <c r="L12" s="64"/>
+      <c r="L12" s="66"/>
       <c r="M12" s="12">
         <v>8</v>
       </c>
@@ -5580,7 +5580,7 @@
       <c r="K13" s="12">
         <v>9</v>
       </c>
-      <c r="L13" s="64"/>
+      <c r="L13" s="66"/>
       <c r="M13" s="12">
         <v>9</v>
       </c>
@@ -5650,7 +5650,7 @@
       <c r="K14" s="12">
         <v>10</v>
       </c>
-      <c r="L14" s="65"/>
+      <c r="L14" s="67"/>
       <c r="M14" s="12">
         <v>10</v>
       </c>
@@ -5732,7 +5732,7 @@
       <c r="K15" s="12">
         <v>11</v>
       </c>
-      <c r="L15" s="63" t="s">
+      <c r="L15" s="65" t="s">
         <v>4</v>
       </c>
       <c r="M15" s="12">
@@ -5790,16 +5790,16 @@
         <f>KOSDAQ!C7</f>
         <v>https://finance.naver.com/item/main.naver?code=113810</v>
       </c>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
       <c r="AF15" s="33"/>
     </row>
     <row r="16" spans="2:32" ht="17.25" thickBot="1">
       <c r="K16" s="12">
         <v>12</v>
       </c>
-      <c r="L16" s="64"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="12">
         <v>2</v>
       </c>
@@ -5855,21 +5855,21 @@
         <f>KOSDAQ!C8</f>
         <v>https://finance.naver.com/item/main.naver?code=038870</v>
       </c>
-      <c r="AB16" s="66" t="s">
+      <c r="AB16" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="AC16" s="66"/>
+      <c r="AC16" s="64"/>
       <c r="AD16" s="16"/>
-      <c r="AE16" s="66" t="s">
+      <c r="AE16" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="AF16" s="66"/>
+      <c r="AF16" s="64"/>
     </row>
     <row r="17" spans="1:33" ht="17.25" thickBot="1">
       <c r="K17" s="12">
         <v>13</v>
       </c>
-      <c r="L17" s="64"/>
+      <c r="L17" s="66"/>
       <c r="M17" s="12">
         <v>3</v>
       </c>
@@ -5943,7 +5943,7 @@
       <c r="K18" s="12">
         <v>14</v>
       </c>
-      <c r="L18" s="64"/>
+      <c r="L18" s="66"/>
       <c r="M18" s="12">
         <v>4</v>
       </c>
@@ -6015,7 +6015,7 @@
       <c r="K19" s="12">
         <v>15</v>
       </c>
-      <c r="L19" s="64"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="12">
         <v>5</v>
       </c>
@@ -6083,7 +6083,7 @@
       <c r="K20" s="12">
         <v>16</v>
       </c>
-      <c r="L20" s="64"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="12">
         <v>6</v>
       </c>
@@ -6163,7 +6163,7 @@
       <c r="K21" s="12">
         <v>17</v>
       </c>
-      <c r="L21" s="64"/>
+      <c r="L21" s="66"/>
       <c r="M21" s="12">
         <v>7</v>
       </c>
@@ -6224,7 +6224,7 @@
       <c r="K22" s="12">
         <v>18</v>
       </c>
-      <c r="L22" s="64"/>
+      <c r="L22" s="66"/>
       <c r="M22" s="12">
         <v>8</v>
       </c>
@@ -6280,16 +6280,16 @@
         <f>KOSDAQ!C14</f>
         <v>https://finance.naver.com/item/main.naver?code=011080</v>
       </c>
-      <c r="AE22" s="66" t="s">
+      <c r="AE22" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="AF22" s="66"/>
+      <c r="AF22" s="64"/>
     </row>
     <row r="23" spans="1:33" ht="17.25" thickBot="1">
       <c r="K23" s="12">
         <v>19</v>
       </c>
-      <c r="L23" s="64"/>
+      <c r="L23" s="66"/>
       <c r="M23" s="12">
         <v>9</v>
       </c>
@@ -6356,7 +6356,7 @@
       <c r="K24" s="12">
         <v>20</v>
       </c>
-      <c r="L24" s="65"/>
+      <c r="L24" s="67"/>
       <c r="M24" s="12">
         <v>10</v>
       </c>
@@ -6467,13 +6467,13 @@
       <c r="X27" s="62"/>
       <c r="Y27" s="62"/>
       <c r="Z27" s="62"/>
-      <c r="AB27" s="66" t="s">
+      <c r="AB27" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="66"/>
-      <c r="AF27" s="66"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
     </row>
     <row r="28" spans="1:33" ht="17.25" thickBot="1">
       <c r="K28" s="62" t="s">
@@ -6521,19 +6521,19 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="61" t="str">
+      <c r="K29" s="60" t="str">
         <f>주요뉴스!E4</f>
         <v xml:space="preserve">머니투데이 </v>
       </c>
-      <c r="L29" s="61"/>
-      <c r="M29" s="60" t="str">
+      <c r="L29" s="60"/>
+      <c r="M29" s="61" t="str">
         <f>주요뉴스!C4</f>
         <v>"4만전자 다시 볼라"…외국인 빠진 삼성전자, 내년은?</v>
       </c>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
@@ -6560,19 +6560,19 @@
       <c r="AF29" s="26"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="K30" s="61" t="str">
+      <c r="K30" s="60" t="str">
         <f>주요뉴스!E5</f>
         <v xml:space="preserve">문화일보 </v>
       </c>
-      <c r="L30" s="61"/>
-      <c r="M30" s="60" t="str">
+      <c r="L30" s="60"/>
+      <c r="M30" s="61" t="str">
         <f>주요뉴스!C5</f>
         <v>PBR 0.8배 ‘코로나 수준’… 글로벌 투자 비중도 ‘뚝뚝’</v>
       </c>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
@@ -6600,19 +6600,19 @@
       <c r="AG30" s="26"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="K31" s="61" t="str">
+      <c r="K31" s="60" t="str">
         <f>주요뉴스!E6</f>
         <v xml:space="preserve">헤럴드경제 </v>
       </c>
-      <c r="L31" s="61"/>
-      <c r="M31" s="60" t="str">
+      <c r="L31" s="60"/>
+      <c r="M31" s="61" t="str">
         <f>주요뉴스!C6</f>
         <v>외인 코스피서 2조 넘게 이탈한 3가지 이유</v>
       </c>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
@@ -6626,12 +6626,12 @@
         <v>▶</v>
       </c>
       <c r="AA31" s="26"/>
-      <c r="AB31" s="61">
+      <c r="AB31" s="60">
         <f>종목별이슈!A5</f>
         <v>0</v>
       </c>
-      <c r="AC31" s="61"/>
-      <c r="AD31" s="61"/>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="60"/>
       <c r="AE31" s="26">
         <f>종목별이슈!D5</f>
         <v>0</v>
@@ -6640,19 +6640,19 @@
       <c r="AG31" s="26"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="K32" s="61" t="str">
+      <c r="K32" s="60" t="str">
         <f>주요뉴스!E7</f>
         <v xml:space="preserve">헤럴드경제 </v>
       </c>
-      <c r="L32" s="61"/>
-      <c r="M32" s="60" t="str">
+      <c r="L32" s="60"/>
+      <c r="M32" s="61" t="str">
         <f>주요뉴스!C7</f>
         <v>美증시 시총&lt;63조달러&gt;, 글로벌 절반 넘었다</v>
       </c>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
@@ -6666,12 +6666,12 @@
         <v>▶</v>
       </c>
       <c r="AA32" s="26"/>
-      <c r="AB32" s="61">
+      <c r="AB32" s="60">
         <f>종목별이슈!A6</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="61"/>
-      <c r="AD32" s="61"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="60"/>
       <c r="AE32" s="26">
         <f>종목별이슈!D6</f>
         <v>0</v>
@@ -6680,19 +6680,19 @@
       <c r="AG32" s="26"/>
     </row>
     <row r="33" spans="1:33">
-      <c r="K33" s="61" t="str">
+      <c r="K33" s="60" t="str">
         <f>주요뉴스!E8</f>
         <v xml:space="preserve">서울경제 </v>
       </c>
-      <c r="L33" s="61"/>
-      <c r="M33" s="60" t="str">
+      <c r="L33" s="60"/>
+      <c r="M33" s="61" t="str">
         <f>주요뉴스!C8</f>
         <v>저점 찍었나…삼성전자 순매수 1위[주식 초고수는 지금]</v>
       </c>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
@@ -6706,12 +6706,12 @@
         <v>▶</v>
       </c>
       <c r="AA33" s="26"/>
-      <c r="AB33" s="61">
+      <c r="AB33" s="60">
         <f>종목별이슈!A7</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="61"/>
-      <c r="AD33" s="61"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="60"/>
       <c r="AE33" s="26">
         <f>종목별이슈!D7</f>
         <v>0</v>
@@ -6720,19 +6720,19 @@
       <c r="AG33" s="26"/>
     </row>
     <row r="34" spans="1:33">
-      <c r="K34" s="61" t="str">
+      <c r="K34" s="60" t="str">
         <f>주요뉴스!E9</f>
         <v xml:space="preserve">헤럴드경제 </v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="60" t="str">
+      <c r="L34" s="60"/>
+      <c r="M34" s="61" t="str">
         <f>주요뉴스!C9</f>
         <v>QQQ 투자? 당신도 ‘비트코인’ 투자자!…대표 나스닥 ETF, ‘마이크로스트레티지’ 편입 효과는? [투자260]</v>
       </c>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
@@ -6746,12 +6746,12 @@
         <v>▶</v>
       </c>
       <c r="AA34" s="26"/>
-      <c r="AB34" s="61">
+      <c r="AB34" s="60">
         <f>종목별이슈!A8</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="61"/>
-      <c r="AD34" s="61"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
       <c r="AE34" s="26">
         <f>종목별이슈!D8</f>
         <v>0</v>
@@ -6760,19 +6760,19 @@
       <c r="AG34" s="26"/>
     </row>
     <row r="35" spans="1:33">
-      <c r="K35" s="61" t="str">
+      <c r="K35" s="60" t="str">
         <f>주요뉴스!E10</f>
         <v xml:space="preserve">한국경제TV </v>
       </c>
-      <c r="L35" s="61"/>
-      <c r="M35" s="60" t="str">
+      <c r="L35" s="60"/>
+      <c r="M35" s="61" t="str">
         <f>주요뉴스!C10</f>
         <v>美 트럼프發 셧다운 위기...탄핵정국 韓 직격탄 우려 [오한마]</v>
       </c>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
@@ -6786,12 +6786,12 @@
         <v>▶</v>
       </c>
       <c r="AA35" s="26"/>
-      <c r="AB35" s="61">
+      <c r="AB35" s="60">
         <f>종목별이슈!A9</f>
         <v>0</v>
       </c>
-      <c r="AC35" s="61"/>
-      <c r="AD35" s="61"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
       <c r="AE35" s="26">
         <f>종목별이슈!D9</f>
         <v>0</v>
@@ -6800,19 +6800,19 @@
       <c r="AG35" s="26"/>
     </row>
     <row r="36" spans="1:33">
-      <c r="K36" s="61" t="str">
+      <c r="K36" s="60" t="str">
         <f>주요뉴스!E11</f>
         <v xml:space="preserve">뉴시스 </v>
       </c>
-      <c r="L36" s="61"/>
-      <c r="M36" s="60" t="str">
+      <c r="L36" s="60"/>
+      <c r="M36" s="61" t="str">
         <f>주요뉴스!C11</f>
         <v>불닭 열풍' 삼양식품, 하락장 속 나홀로 질주…최고가 경신</v>
       </c>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
       <c r="T36" s="25"/>
@@ -6826,12 +6826,12 @@
         <v>▶</v>
       </c>
       <c r="AA36" s="26"/>
-      <c r="AB36" s="61">
+      <c r="AB36" s="60">
         <f>종목별이슈!A10</f>
         <v>0</v>
       </c>
-      <c r="AC36" s="61"/>
-      <c r="AD36" s="61"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="60"/>
       <c r="AE36" s="26">
         <f>종목별이슈!D10</f>
         <v>0</v>
@@ -6840,19 +6840,19 @@
       <c r="AG36" s="26"/>
     </row>
     <row r="37" spans="1:33">
-      <c r="K37" s="61" t="str">
+      <c r="K37" s="60" t="str">
         <f>주요뉴스!E12</f>
         <v xml:space="preserve">뉴시스 </v>
       </c>
-      <c r="L37" s="61"/>
-      <c r="M37" s="60" t="str">
+      <c r="L37" s="60"/>
+      <c r="M37" s="61" t="str">
         <f>주요뉴스!C12</f>
         <v>벨기에 빌딩 투자도 전액 손실로…늦어지는 금리인하 어쩌나</v>
       </c>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
@@ -6866,12 +6866,12 @@
         <v>▶</v>
       </c>
       <c r="AA37" s="26"/>
-      <c r="AB37" s="61">
+      <c r="AB37" s="60">
         <f>종목별이슈!A11</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="61"/>
-      <c r="AD37" s="61"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="60"/>
       <c r="AE37" s="26">
         <f>종목별이슈!D11</f>
         <v>0</v>
@@ -6881,19 +6881,19 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="20"/>
-      <c r="K38" s="61" t="str">
+      <c r="K38" s="60" t="str">
         <f>주요뉴스!E13</f>
         <v xml:space="preserve">서울경제 </v>
       </c>
-      <c r="L38" s="61"/>
-      <c r="M38" s="60" t="str">
+      <c r="L38" s="60"/>
+      <c r="M38" s="61" t="str">
         <f>주요뉴스!C13</f>
         <v>"대권 도전하나?" 질문에 "생각해 본 적 없다"…우원식 대답에 '테마주' 급락</v>
       </c>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
@@ -6907,12 +6907,12 @@
         <v>▶</v>
       </c>
       <c r="AA38" s="26"/>
-      <c r="AB38" s="61">
+      <c r="AB38" s="60">
         <f>종목별이슈!A12</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="61"/>
-      <c r="AD38" s="61"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="60"/>
       <c r="AE38" s="26">
         <f>종목별이슈!D12</f>
         <v>0</v>
@@ -6922,19 +6922,19 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="21"/>
-      <c r="K39" s="61" t="str">
+      <c r="K39" s="60" t="str">
         <f>주요뉴스!E14</f>
         <v xml:space="preserve">헤럴드경제 </v>
       </c>
-      <c r="L39" s="61"/>
-      <c r="M39" s="60" t="str">
+      <c r="L39" s="60"/>
+      <c r="M39" s="61" t="str">
         <f>주요뉴스!C14</f>
         <v>“11만달러 가나 했더니”···꺾인 비트코인, 연이틀 약세에 국내 가상자산株도 ‘뚝’ [투자360]</v>
       </c>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
@@ -6948,12 +6948,12 @@
         <v>▶</v>
       </c>
       <c r="AA39" s="26"/>
-      <c r="AB39" s="61">
+      <c r="AB39" s="60">
         <f>종목별이슈!A13</f>
         <v>0</v>
       </c>
-      <c r="AC39" s="61"/>
-      <c r="AD39" s="61"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="60"/>
       <c r="AE39" s="26">
         <f>종목별이슈!D13</f>
         <v>0</v>
@@ -6963,19 +6963,19 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="21"/>
-      <c r="K40" s="61" t="str">
+      <c r="K40" s="60" t="str">
         <f>주요뉴스!E15</f>
         <v xml:space="preserve">뉴스1 </v>
       </c>
-      <c r="L40" s="61"/>
-      <c r="M40" s="60" t="str">
+      <c r="L40" s="60"/>
+      <c r="M40" s="61" t="str">
         <f>주요뉴스!C15</f>
         <v>재건 수혜주' 전진건설로봇 5거래일간 63% 급등…사상 최고가[핫종목]</v>
       </c>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
@@ -6989,12 +6989,12 @@
         <v>▶</v>
       </c>
       <c r="AA40" s="26"/>
-      <c r="AB40" s="61">
+      <c r="AB40" s="60">
         <f>종목별이슈!A14</f>
         <v>0</v>
       </c>
-      <c r="AC40" s="61"/>
-      <c r="AD40" s="61"/>
+      <c r="AC40" s="60"/>
+      <c r="AD40" s="60"/>
       <c r="AE40" s="26">
         <f>종목별이슈!D14</f>
         <v>0</v>
@@ -7004,19 +7004,19 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="21"/>
-      <c r="K41" s="61" t="str">
+      <c r="K41" s="60" t="str">
         <f>주요뉴스!E16</f>
         <v xml:space="preserve">뉴시스 </v>
       </c>
-      <c r="L41" s="61"/>
-      <c r="M41" s="60" t="str">
+      <c r="L41" s="60"/>
+      <c r="M41" s="61" t="str">
         <f>주요뉴스!C16</f>
         <v>"킹달러 수혜주"…자동차株 악셀 밟나</v>
       </c>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
@@ -7030,12 +7030,12 @@
         <v>▶</v>
       </c>
       <c r="AA41" s="26"/>
-      <c r="AB41" s="61">
+      <c r="AB41" s="60">
         <f>종목별이슈!A15</f>
         <v>0</v>
       </c>
-      <c r="AC41" s="61"/>
-      <c r="AD41" s="61"/>
+      <c r="AC41" s="60"/>
+      <c r="AD41" s="60"/>
       <c r="AE41" s="26">
         <f>종목별이슈!D15</f>
         <v>0</v>
@@ -7045,19 +7045,19 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="21"/>
-      <c r="K42" s="61" t="str">
+      <c r="K42" s="60" t="str">
         <f>주요뉴스!E17</f>
         <v xml:space="preserve">한국경제TV </v>
       </c>
-      <c r="L42" s="61"/>
-      <c r="M42" s="60" t="str">
+      <c r="L42" s="60"/>
+      <c r="M42" s="61" t="str">
         <f>주요뉴스!C17</f>
         <v>강세론자' 톰 리 "증시 비관론 지나쳐…저가매수 기회"</v>
       </c>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
@@ -7071,12 +7071,12 @@
         <v>▶</v>
       </c>
       <c r="AA42" s="26"/>
-      <c r="AB42" s="61">
+      <c r="AB42" s="60">
         <f>종목별이슈!A16</f>
         <v>0</v>
       </c>
-      <c r="AC42" s="61"/>
-      <c r="AD42" s="61"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="60"/>
       <c r="AE42" s="26">
         <f>종목별이슈!D16</f>
         <v>0</v>
@@ -7095,19 +7095,19 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="K43" s="61" t="str">
+      <c r="K43" s="60" t="str">
         <f>주요뉴스!E18</f>
         <v xml:space="preserve">서울경제 </v>
       </c>
-      <c r="L43" s="61"/>
-      <c r="M43" s="60" t="str">
+      <c r="L43" s="60"/>
+      <c r="M43" s="61" t="str">
         <f>주요뉴스!C18</f>
         <v>‘대기업 입주 속속’ 모습 갖춰가는 마곡, 서울 핵심 업무권역으로 우뚝</v>
       </c>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
@@ -7121,12 +7121,12 @@
         <v>▶</v>
       </c>
       <c r="AA43" s="26"/>
-      <c r="AB43" s="61">
+      <c r="AB43" s="60">
         <f>종목별이슈!A17</f>
         <v>0</v>
       </c>
-      <c r="AC43" s="61"/>
-      <c r="AD43" s="61"/>
+      <c r="AC43" s="60"/>
+      <c r="AD43" s="60"/>
       <c r="AE43" s="26">
         <f>종목별이슈!D17</f>
         <v>0</v>
@@ -7135,19 +7135,19 @@
       <c r="AG43" s="26"/>
     </row>
     <row r="44" spans="1:33">
-      <c r="K44" s="61" t="str">
+      <c r="K44" s="60" t="str">
         <f>주요뉴스!E19</f>
         <v xml:space="preserve">비즈워치 </v>
       </c>
-      <c r="L44" s="61"/>
-      <c r="M44" s="60" t="str">
+      <c r="L44" s="60"/>
+      <c r="M44" s="61" t="str">
         <f>주요뉴스!C19</f>
         <v>삼성증권 "롯데케미칼, 재무 리스크 사라졌지만…목표가는 하향"</v>
       </c>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
@@ -7161,12 +7161,12 @@
         <v>▶</v>
       </c>
       <c r="AA44" s="26"/>
-      <c r="AB44" s="61">
+      <c r="AB44" s="60">
         <f>종목별이슈!A18</f>
         <v>0</v>
       </c>
-      <c r="AC44" s="61"/>
-      <c r="AD44" s="61"/>
+      <c r="AC44" s="60"/>
+      <c r="AD44" s="60"/>
       <c r="AE44" s="26">
         <f>종목별이슈!D18</f>
         <v>0</v>
@@ -7175,19 +7175,19 @@
       <c r="AG44" s="26"/>
     </row>
     <row r="45" spans="1:33">
-      <c r="K45" s="61" t="str">
+      <c r="K45" s="60" t="str">
         <f>주요뉴스!E20</f>
         <v xml:space="preserve">매일경제 </v>
       </c>
-      <c r="L45" s="61"/>
-      <c r="M45" s="60" t="str">
+      <c r="L45" s="60"/>
+      <c r="M45" s="61" t="str">
         <f>주요뉴스!C20</f>
         <v>이러다 진짜 ‘황제주’ 등극하겠네…전세계 주목 받으며 올해 247% 오른 삼양식품</v>
       </c>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
@@ -7201,12 +7201,12 @@
         <v>▶</v>
       </c>
       <c r="AA45" s="26"/>
-      <c r="AB45" s="61">
+      <c r="AB45" s="60">
         <f>종목별이슈!A19</f>
         <v>0</v>
       </c>
-      <c r="AC45" s="61"/>
-      <c r="AD45" s="61"/>
+      <c r="AC45" s="60"/>
+      <c r="AD45" s="60"/>
       <c r="AE45" s="26">
         <f>종목별이슈!D19</f>
         <v>0</v>
@@ -7215,19 +7215,19 @@
       <c r="AG45" s="26"/>
     </row>
     <row r="46" spans="1:33" ht="18" customHeight="1">
-      <c r="K46" s="61" t="str">
+      <c r="K46" s="60" t="str">
         <f>주요뉴스!E21</f>
         <v xml:space="preserve">매일경제 </v>
       </c>
-      <c r="L46" s="61"/>
-      <c r="M46" s="60" t="str">
+      <c r="L46" s="60"/>
+      <c r="M46" s="61" t="str">
         <f>주요뉴스!C21</f>
         <v>“오늘도 영 맥 못 추네”…삼성전자 1%·SK하이닉스 2%대 약세</v>
       </c>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="60"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
       <c r="T46" s="25"/>
@@ -7241,12 +7241,12 @@
         <v>▶</v>
       </c>
       <c r="AA46" s="26"/>
-      <c r="AB46" s="61">
+      <c r="AB46" s="60">
         <f>종목별이슈!A20</f>
         <v>0</v>
       </c>
-      <c r="AC46" s="61"/>
-      <c r="AD46" s="61"/>
+      <c r="AC46" s="60"/>
+      <c r="AD46" s="60"/>
       <c r="AE46" s="26">
         <f>종목별이슈!D20</f>
         <v>0</v>
@@ -7255,19 +7255,19 @@
       <c r="AG46" s="26"/>
     </row>
     <row r="47" spans="1:33">
-      <c r="K47" s="61" t="str">
+      <c r="K47" s="60" t="str">
         <f>주요뉴스!E22</f>
         <v xml:space="preserve">헤럴드경제 </v>
       </c>
-      <c r="L47" s="61"/>
-      <c r="M47" s="60" t="str">
+      <c r="L47" s="60"/>
+      <c r="M47" s="61" t="str">
         <f>주요뉴스!C22</f>
         <v>‘6600억 美 보조금’ 약발 안 통하는 SK하닉…FOMC·마이크론 쇼크에 K-반도체株 ‘휘청’ [투자360]</v>
       </c>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61"/>
       <c r="R47" s="25"/>
       <c r="S47" s="25"/>
       <c r="T47" s="25"/>
@@ -7281,12 +7281,12 @@
         <v>▶</v>
       </c>
       <c r="AA47" s="26"/>
-      <c r="AB47" s="61">
+      <c r="AB47" s="60">
         <f>종목별이슈!A21</f>
         <v>0</v>
       </c>
-      <c r="AC47" s="61"/>
-      <c r="AD47" s="61"/>
+      <c r="AC47" s="60"/>
+      <c r="AD47" s="60"/>
       <c r="AE47" s="26">
         <f>종목별이슈!D21</f>
         <v>0</v>
@@ -7295,28 +7295,94 @@
       <c r="AG47" s="26"/>
     </row>
     <row r="48" spans="1:33">
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
       <c r="M48" s="26"/>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="61"/>
-      <c r="T48" s="61"/>
-      <c r="U48" s="61"/>
-      <c r="V48" s="61"/>
-      <c r="W48" s="61"/>
-      <c r="X48" s="61"/>
-      <c r="Y48" s="61"/>
-      <c r="Z48" s="61"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="60"/>
+      <c r="V48" s="60"/>
+      <c r="W48" s="60"/>
+      <c r="X48" s="60"/>
+      <c r="Y48" s="60"/>
+      <c r="Z48" s="60"/>
       <c r="AA48" s="26"/>
       <c r="AG48" s="26"/>
     </row>
     <row r="51" ht="19.149999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="M43:Q43"/>
+    <mergeCell ref="M44:Q44"/>
+    <mergeCell ref="M45:Q45"/>
+    <mergeCell ref="M46:Q46"/>
+    <mergeCell ref="M38:Q38"/>
+    <mergeCell ref="M39:Q39"/>
+    <mergeCell ref="M40:Q40"/>
+    <mergeCell ref="M41:Q41"/>
+    <mergeCell ref="M42:Q42"/>
+    <mergeCell ref="AB44:AD44"/>
+    <mergeCell ref="AB45:AD45"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="M36:Q36"/>
+    <mergeCell ref="M37:Q37"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="K27:Z27"/>
+    <mergeCell ref="L15:L24"/>
+    <mergeCell ref="L5:L14"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AB27:AF27"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="K3:Z3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
     <mergeCell ref="N48:Z48"/>
     <mergeCell ref="M47:Q47"/>
     <mergeCell ref="AB47:AD47"/>
@@ -7333,72 +7399,6 @@
     <mergeCell ref="AB42:AD42"/>
     <mergeCell ref="AB46:AD46"/>
     <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="K3:Z3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="K27:Z27"/>
-    <mergeCell ref="L15:L24"/>
-    <mergeCell ref="L5:L14"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AB27:AF27"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="AB44:AD44"/>
-    <mergeCell ref="AB45:AD45"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="M33:Q33"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="M36:Q36"/>
-    <mergeCell ref="M37:Q37"/>
-    <mergeCell ref="M43:Q43"/>
-    <mergeCell ref="M44:Q44"/>
-    <mergeCell ref="M45:Q45"/>
-    <mergeCell ref="M46:Q46"/>
-    <mergeCell ref="M38:Q38"/>
-    <mergeCell ref="M39:Q39"/>
-    <mergeCell ref="M40:Q40"/>
-    <mergeCell ref="M41:Q41"/>
-    <mergeCell ref="M42:Q42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -19692,7 +19692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AD483E-2744-416E-9F49-AC65A19CC372}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/21_오늘의_증권시황/Data/Output/Today_Stock_Information_2024-12-20.xlsx
+++ b/21_오늘의_증권시황/Data/Output/Today_Stock_Information_2024-12-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCC9FB2-5FF5-434C-8B07-094BC27A153B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E21FAB5-37E1-43E5-A9A4-40C753DC0900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="1500" windowWidth="16920" windowHeight="12030" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
   </bookViews>
@@ -2924,7 +2924,7 @@
     <t>마음AI</t>
   </si>
   <si>
-    <t xml:space="preserve">AI 플랫폼 서비스 전문기업 </t>
+    <t>AI 플랫폼 서비스 전문기업</t>
   </si>
   <si>
     <t>https://finance.naver.com/research/company_read.naver?nid=79430&amp;page=1</t>
@@ -2951,7 +2951,7 @@
     <t>이노인스트루먼트</t>
   </si>
   <si>
-    <t xml:space="preserve">광섬유 융착 접속기 제조 전문기업 </t>
+    <t>광섬유 융착 접속기 제조 전문기업</t>
   </si>
   <si>
     <t>https://finance.naver.com/research/company_read.naver?nid=79427&amp;page=1</t>
@@ -5133,7 +5133,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A687B9-813D-4300-B06B-3AF03999CF88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C224AF-765E-4A35-8B58-C18CDF726201}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5183,7 +5183,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B96A3B-78E5-4C7F-85F8-425847C90244}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4114B71B-048C-4DD6-9F44-9D7C37699D43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5233,7 +5233,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF1B348-2639-40BD-88C8-CE83CB7CDB61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91A6565-F247-4EB0-B1EA-B82AA124B989}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5283,7 +5283,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF6E5A3-8925-464D-B450-93D8147EFDFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A377CA-8C0A-486B-9EFD-9B3FCFF423C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5333,7 +5333,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6C0821-5AF2-4783-96D3-758877366947}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F1CA2E-4A95-4C7D-8B63-CC1F2BAB5A7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5383,7 +5383,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2BAEF9-EFAD-440B-9F26-522E6475D90C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59729122-C942-4CDB-8882-360BCFA214EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5433,7 +5433,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F79A994-3CEE-4D45-931C-232B89B2C085}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202676AD-8594-4BD0-9B1B-FB871FF20B03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5483,7 +5483,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F25614E-9D9F-4AB8-8185-A8969DCF45BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06443601-749E-43BC-BBBB-B0C6CF929ACE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5533,7 +5533,7 @@
         <xdr:cNvPr id="14" name="그림 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664394C1-694E-43CD-AE86-14567A1EF7C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A68F86F-A524-4AE7-BE79-F7BD9196AF0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5583,7 +5583,7 @@
         <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA71E5F-47E0-48DB-92A4-562333B4D0C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE14768-8D15-4981-B0CE-ADE84E151EAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5633,7 +5633,7 @@
         <xdr:cNvPr id="18" name="그림 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC826808-2559-4124-82BE-0F2458488995}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B39006-D815-4160-BAEF-8D36ECCB2ED4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5683,7 +5683,7 @@
         <xdr:cNvPr id="20" name="그림 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765476D1-6439-4550-B46D-B3ED42ADB0DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E84FFA1-54B8-40F2-A987-03C4213E6E26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
